--- a/Resource/ReportList/Menu and ReportHeader.xlsx
+++ b/Resource/ReportList/Menu and ReportHeader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\ReportList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D02B8F7-6C7E-4B7F-8ADD-B80C6C3E4D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E5B1B-FEE1-4C12-8D9A-CABE35B87193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2519AC98-AA75-43AC-92A5-D3141F8FABB6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ชื่อรายงานใน TOR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ชื่อหัวรายงานสำหรับเพิ่มใน Code'!$C$1:$C$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ชื่อหัวรายงานสำหรับเพิ่มใน Code'!$C$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
   <si>
     <t>LIC-01</t>
   </si>
@@ -405,9 +405,6 @@
     <t>รายละเอียดเงินประจำตำแหน่งของพนักงานเจ้าหน้าที่สำนักงานเลขาธิการคุรุสภา ประจำปีงบประมาณ …</t>
   </si>
   <si>
-    <t>รายละเอียดเงินเพิ่มพิเศษกรณีเงินเดือนเพิ่มขั้น ของพนักงานเจ้าหน้าที่สำนักงานเลขาธิการคุรุสภา ประจำปีงบประมาณ …</t>
-  </si>
-  <si>
     <t>รายงานเงินเดือนย้อนหลัง  60 เดือน ณ วันที่ …</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>ข้อมูลชาวต่างประเทศที่ขึ้นทะเบียนรับใบอนุญาตประกอบวิชาชีพครู จำแนกตามประเทศ ปี พ.ศ. ...</t>
   </si>
   <si>
-    <t>ผลการรับรองหลักสูตรเพื่อการพัฒนาครูและบุคลากรทางการศึกษา สายงานการสอน ประจำปีงบประมาณ พ.ศ. ... ของสำนักงาน …</t>
-  </si>
-  <si>
     <t>สำนักงานเลขาธิการคุรุสภา ทะเบียนคุมสัญญายืมเงินทดรองทั้งหมด วันที่ … ถึงวันที่ …</t>
   </si>
   <si>
@@ -514,6 +508,126 @@
   </si>
   <si>
     <t>ETH-030</t>
+  </si>
+  <si>
+    <t>จำนวนหนังสือเอกสารเข้าจำแนกตามหน่วยงาน ประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>จำนวนหนังสือเอกสารออกจำแนกตามหน่วยงาน ประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>เปรียบเทียบจำนวนหนังสือเอกสาร เข้า-ออก จำแนกตามหน่วยงาน</t>
+  </si>
+  <si>
+    <t>HR-010</t>
+  </si>
+  <si>
+    <t>HR-080</t>
+  </si>
+  <si>
+    <t>HR-060</t>
+  </si>
+  <si>
+    <t>HR-070</t>
+  </si>
+  <si>
+    <t>HR-020</t>
+  </si>
+  <si>
+    <t>HR-030</t>
+  </si>
+  <si>
+    <t>HR-040</t>
+  </si>
+  <si>
+    <t>BDG-010</t>
+  </si>
+  <si>
+    <t>BDG-030</t>
+  </si>
+  <si>
+    <t>BDG-020</t>
+  </si>
+  <si>
+    <t>BDG-150</t>
+  </si>
+  <si>
+    <t>BDG-050</t>
+  </si>
+  <si>
+    <t>BDG-140</t>
+  </si>
+  <si>
+    <t>BDG-080</t>
+  </si>
+  <si>
+    <t>BDG-090</t>
+  </si>
+  <si>
+    <t>BDG-100</t>
+  </si>
+  <si>
+    <t>BDG-070</t>
+  </si>
+  <si>
+    <t>BDG-130</t>
+  </si>
+  <si>
+    <t>BDG-110</t>
+  </si>
+  <si>
+    <t>BDG-120</t>
+  </si>
+  <si>
+    <t>BDG-060</t>
+  </si>
+  <si>
+    <t>ASS-010</t>
+  </si>
+  <si>
+    <t>ASS-050</t>
+  </si>
+  <si>
+    <t>ASS-020</t>
+  </si>
+  <si>
+    <t>HR-050</t>
+  </si>
+  <si>
+    <t>DOC-010</t>
+  </si>
+  <si>
+    <t>DOC-020</t>
+  </si>
+  <si>
+    <t>DOC-030</t>
+  </si>
+  <si>
+    <t>ASS-030</t>
+  </si>
+  <si>
+    <t>ASS-040</t>
+  </si>
+  <si>
+    <t>BDG-040</t>
+  </si>
+  <si>
+    <t>BDG-04</t>
+  </si>
+  <si>
+    <t>ตารางเปรียบเทียบงบประมาณรายจ่ายประจำปีงบประมาณ พ.ศ. … และ พ.ศ. …  ของสำนักงานเลขาธิการคุรุสภา จำแนกตามส่วนงาน</t>
+  </si>
+  <si>
+    <t>ประมาณการรายรับ ประจำปีงบประมาณ จำแนกตามไตรมาส ของสำนักงานเลขาธิการคุรุสภา</t>
+  </si>
+  <si>
+    <t>ประมาณการรายรับ ประจำปีงบประมาณ จำแนกตามไตรมาส</t>
+  </si>
+  <si>
+    <t>LIC-045</t>
+  </si>
+  <si>
+    <t>จำนวนใบอนุญาตประกอบวิชาชีพจำแนกข้อมูลตามสังกัด และประเภทวิชาชีพ</t>
   </si>
 </sst>
 </file>
@@ -637,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -679,9 +793,30 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,23 +1137,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C5551-9B85-4C9C-8AE4-78CB7BE2B2DF}">
-  <dimension ref="A2:D62"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="129.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="2" customWidth="1"/>
-    <col min="4" max="8" width="9.06640625" style="2"/>
-    <col min="9" max="9" width="20.9296875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="16.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="137.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1026,582 +1163,896 @@
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.5">
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.5">
+      <c r="A34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C51" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A55" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E64" s="23"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B68" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.5">
-      <c r="A56" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>106</v>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B71" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B72" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C64" xr:uid="{3969C0AA-696D-4DE5-B999-438E4B3628E8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D72">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1610,7 +2061,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1804,7 +2255,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1812,11 +2263,11 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
